--- a/biology/Zoologie/Anthomyie_pluviale/Anthomyie_pluviale.xlsx
+++ b/biology/Zoologie/Anthomyie_pluviale/Anthomyie_pluviale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthomyia pluvialis
-L'Anthomyie pluviale[1] ou Mouche des pluies (Anthomyia pluvialis), est une espèce d'insectes diptères brachycères de la famille des Anthomyiidae. Il s'agit d'une espèce holarctique très commune.
-Cette petite mouche longue de 5 à 7 mm est facilement reconnaissable à ses dessins noirs sur fond gris argenté, notamment cinq taches sur le scutum du thorax et trois sur le scutellum. Les imagos se rencontrent sur les fleurs et dans les milieux hygrophiles. Quant aux larves, elles se nourrissent de champignons et d'excréments dans les nids d'oiseaux[2].
+L'Anthomyie pluviale ou Mouche des pluies (Anthomyia pluvialis), est une espèce d'insectes diptères brachycères de la famille des Anthomyiidae. Il s'agit d'une espèce holarctique très commune.
+Cette petite mouche longue de 5 à 7 mm est facilement reconnaissable à ses dessins noirs sur fond gris argenté, notamment cinq taches sur le scutum du thorax et trois sur le scutellum. Les imagos se rencontrent sur les fleurs et dans les milieux hygrophiles. Quant aux larves, elles se nourrissent de champignons et d'excréments dans les nids d'oiseaux.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthomyia pluvialis a pour synonymes[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthomyia pluvialis a pour synonymes :
 Anthomya chorea Robineau-Desvoidy, 1830
 Anthomya flavescens Robineau-Desvoidy, 1830
 Anthomya floralis Robineau-Desvoidy, 1830
